--- a/Temp/SJ/졸작 계획서_신성재.xlsx
+++ b/Temp/SJ/졸작 계획서_신성재.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EEB743-78D7-4345-8D68-295E54957BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0097911D-ADB9-49BC-A84A-6806E4BA4B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>본가</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>행사 참가</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -84,6 +80,10 @@
   </si>
   <si>
     <t>지스타 참가</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>본가, 치과방문</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -749,47 +749,47 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="3" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="24" fillId="40" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="6" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="3" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="24" fillId="40" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -846,49 +846,7 @@
     <cellStyle name="평일" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color theme="1" tint="4.9989318521683403E-2"/>
@@ -1187,7 +1145,7 @@
   <dimension ref="B1:AD28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+      <selection activeCell="E9" sqref="E9:AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1200,1248 +1158,1253 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
     </row>
     <row r="2" spans="2:30" ht="24.75" customHeight="1" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="18">
         <f>DATEVALUE("2025/09/01")</f>
         <v>45901</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:30" ht="30" customHeight="1">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="str">
+      <c r="B4" s="5"/>
+      <c r="C4" s="16" t="str">
         <f ca="1">TEXT(TODAY(), "m월")</f>
         <v>9월</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
     </row>
     <row r="5" spans="2:30" ht="30" customHeight="1">
-      <c r="B5" s="7"/>
-      <c r="C5" s="9" t="str">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="str">
         <f>COLUMN(A1) &amp; "일"</f>
         <v>1일</v>
       </c>
-      <c r="D5" s="9" t="str">
+      <c r="D5" s="6" t="str">
         <f t="shared" ref="D5:AB5" si="0">COLUMN(B1) &amp; "일"</f>
         <v>2일</v>
       </c>
-      <c r="E5" s="9" t="str">
+      <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>3일</v>
       </c>
-      <c r="F5" s="9" t="str">
+      <c r="F5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>4일</v>
       </c>
-      <c r="G5" s="9" t="str">
+      <c r="G5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>5일</v>
       </c>
-      <c r="H5" s="9" t="str">
+      <c r="H5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>6일</v>
       </c>
-      <c r="I5" s="9" t="str">
+      <c r="I5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>7일</v>
       </c>
-      <c r="J5" s="9" t="str">
+      <c r="J5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>8일</v>
       </c>
-      <c r="K5" s="9" t="str">
+      <c r="K5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>9일</v>
       </c>
-      <c r="L5" s="9" t="str">
+      <c r="L5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10일</v>
       </c>
-      <c r="M5" s="9" t="str">
+      <c r="M5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11일</v>
       </c>
-      <c r="N5" s="9" t="str">
+      <c r="N5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12일</v>
       </c>
-      <c r="O5" s="9" t="str">
+      <c r="O5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>13일</v>
       </c>
-      <c r="P5" s="9" t="str">
+      <c r="P5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>14일</v>
       </c>
-      <c r="Q5" s="9" t="str">
+      <c r="Q5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>15일</v>
       </c>
-      <c r="R5" s="9" t="str">
+      <c r="R5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>16일</v>
       </c>
-      <c r="S5" s="9" t="str">
+      <c r="S5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17일</v>
       </c>
-      <c r="T5" s="9" t="str">
+      <c r="T5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>18일</v>
       </c>
-      <c r="U5" s="9" t="str">
+      <c r="U5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>19일</v>
       </c>
-      <c r="V5" s="9" t="str">
+      <c r="V5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>20일</v>
       </c>
-      <c r="W5" s="9" t="str">
+      <c r="W5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>21일</v>
       </c>
-      <c r="X5" s="9" t="str">
+      <c r="X5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>22일</v>
       </c>
-      <c r="Y5" s="9" t="str">
+      <c r="Y5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>23일</v>
       </c>
-      <c r="Z5" s="9" t="str">
+      <c r="Z5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>24일</v>
       </c>
-      <c r="AA5" s="9" t="str">
+      <c r="AA5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>25일</v>
       </c>
-      <c r="AB5" s="9" t="str">
+      <c r="AB5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>26일</v>
       </c>
-      <c r="AC5" s="9" t="str">
+      <c r="AC5" s="6" t="str">
         <f>COLUMN(AA1) &amp; "일"</f>
         <v>27일</v>
       </c>
-      <c r="AD5" s="9" t="str">
+      <c r="AD5" s="6" t="str">
         <f>COLUMN(AB1) &amp; "일"</f>
         <v>28일</v>
       </c>
     </row>
     <row r="6" spans="2:30" ht="30" customHeight="1">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
     </row>
     <row r="7" spans="2:30" ht="30" customHeight="1">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
     </row>
     <row r="9" spans="2:30" ht="30" customHeight="1">
-      <c r="B9" s="7"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
     </row>
     <row r="10" spans="2:30" ht="30" customHeight="1">
-      <c r="B10" s="7"/>
-      <c r="C10" s="14" t="str">
+      <c r="B10" s="5"/>
+      <c r="C10" s="8" t="str">
         <f>COLUMN(A1)+28 &amp; "일"</f>
         <v>29일</v>
       </c>
-      <c r="D10" s="14" t="str">
+      <c r="D10" s="8" t="str">
         <f>COLUMN(B1)+28 &amp; "일"</f>
         <v>30일</v>
       </c>
-      <c r="E10" s="14" t="str">
+      <c r="E10" s="8" t="str">
         <f>COLUMN(A1) &amp; "일"</f>
         <v>1일</v>
       </c>
-      <c r="F10" s="14" t="str">
+      <c r="F10" s="8" t="str">
         <f t="shared" ref="F10:AD10" si="1">COLUMN(B1) &amp; "일"</f>
         <v>2일</v>
       </c>
-      <c r="G10" s="14" t="str">
+      <c r="G10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>3일</v>
       </c>
-      <c r="H10" s="14" t="str">
+      <c r="H10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>4일</v>
       </c>
-      <c r="I10" s="14" t="str">
+      <c r="I10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>5일</v>
       </c>
-      <c r="J10" s="14" t="str">
+      <c r="J10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>6일</v>
       </c>
-      <c r="K10" s="14" t="str">
+      <c r="K10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>7일</v>
       </c>
-      <c r="L10" s="14" t="str">
+      <c r="L10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>8일</v>
       </c>
-      <c r="M10" s="14" t="str">
+      <c r="M10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>9일</v>
       </c>
-      <c r="N10" s="14" t="str">
+      <c r="N10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>10일</v>
       </c>
-      <c r="O10" s="14" t="str">
+      <c r="O10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>11일</v>
       </c>
-      <c r="P10" s="14" t="str">
+      <c r="P10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>12일</v>
       </c>
-      <c r="Q10" s="14" t="str">
+      <c r="Q10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>13일</v>
       </c>
-      <c r="R10" s="14" t="str">
+      <c r="R10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>14일</v>
       </c>
-      <c r="S10" s="14" t="str">
+      <c r="S10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>15일</v>
       </c>
-      <c r="T10" s="14" t="str">
+      <c r="T10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>16일</v>
       </c>
-      <c r="U10" s="14" t="str">
+      <c r="U10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>17일</v>
       </c>
-      <c r="V10" s="14" t="str">
+      <c r="V10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>18일</v>
       </c>
-      <c r="W10" s="14" t="str">
+      <c r="W10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>19일</v>
       </c>
-      <c r="X10" s="14" t="str">
+      <c r="X10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>20일</v>
       </c>
-      <c r="Y10" s="14" t="str">
+      <c r="Y10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>21일</v>
       </c>
-      <c r="Z10" s="14" t="str">
+      <c r="Z10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>22일</v>
       </c>
-      <c r="AA10" s="14" t="str">
+      <c r="AA10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>23일</v>
       </c>
-      <c r="AB10" s="14" t="str">
+      <c r="AB10" s="8" t="str">
         <f>COLUMN(X1) &amp; "일"</f>
         <v>24일</v>
       </c>
-      <c r="AC10" s="14" t="str">
+      <c r="AC10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>25일</v>
       </c>
-      <c r="AD10" s="14" t="str">
+      <c r="AD10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>26일</v>
       </c>
     </row>
     <row r="11" spans="2:30" ht="30" customHeight="1">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
     </row>
     <row r="12" spans="2:30" ht="30" customHeight="1">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
     </row>
     <row r="13" spans="2:30" ht="30" customHeight="1">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
     </row>
     <row r="14" spans="2:30" ht="30" customHeight="1">
-      <c r="B14" s="7"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="8" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
     </row>
     <row r="15" spans="2:30" ht="30" customHeight="1">
-      <c r="B15" s="7"/>
-      <c r="C15" s="14" t="str">
+      <c r="B15" s="5"/>
+      <c r="C15" s="8" t="str">
         <f>COLUMN(AA1) &amp; "일"</f>
         <v>27일</v>
       </c>
-      <c r="D15" s="14" t="str">
+      <c r="D15" s="8" t="str">
         <f t="shared" ref="D15:G15" si="2">COLUMN(AB1) &amp; "일"</f>
         <v>28일</v>
       </c>
-      <c r="E15" s="14" t="str">
+      <c r="E15" s="8" t="str">
         <f t="shared" si="2"/>
         <v>29일</v>
       </c>
-      <c r="F15" s="14" t="str">
+      <c r="F15" s="8" t="str">
         <f t="shared" si="2"/>
         <v>30일</v>
       </c>
-      <c r="G15" s="14" t="str">
+      <c r="G15" s="8" t="str">
         <f t="shared" si="2"/>
         <v>31일</v>
       </c>
-      <c r="H15" s="14" t="str">
+      <c r="H15" s="8" t="str">
         <f>COLUMN(A1) &amp; "일"</f>
         <v>1일</v>
       </c>
-      <c r="I15" s="14" t="str">
+      <c r="I15" s="8" t="str">
         <f t="shared" ref="I15:AD15" si="3">COLUMN(B1) &amp; "일"</f>
         <v>2일</v>
       </c>
-      <c r="J15" s="14" t="str">
+      <c r="J15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>3일</v>
       </c>
-      <c r="K15" s="14" t="str">
+      <c r="K15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>4일</v>
       </c>
-      <c r="L15" s="14" t="str">
+      <c r="L15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>5일</v>
       </c>
-      <c r="M15" s="14" t="str">
+      <c r="M15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>6일</v>
       </c>
-      <c r="N15" s="14" t="str">
+      <c r="N15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>7일</v>
       </c>
-      <c r="O15" s="14" t="str">
+      <c r="O15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>8일</v>
       </c>
-      <c r="P15" s="14" t="str">
+      <c r="P15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>9일</v>
       </c>
-      <c r="Q15" s="14" t="str">
+      <c r="Q15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>10일</v>
       </c>
-      <c r="R15" s="14" t="str">
+      <c r="R15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>11일</v>
       </c>
-      <c r="S15" s="14" t="str">
+      <c r="S15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>12일</v>
       </c>
-      <c r="T15" s="14" t="str">
+      <c r="T15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>13일</v>
       </c>
-      <c r="U15" s="14" t="str">
+      <c r="U15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>14일</v>
       </c>
-      <c r="V15" s="14" t="str">
+      <c r="V15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>15일</v>
       </c>
-      <c r="W15" s="14" t="str">
+      <c r="W15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>16일</v>
       </c>
-      <c r="X15" s="14" t="str">
+      <c r="X15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>17일</v>
       </c>
-      <c r="Y15" s="14" t="str">
+      <c r="Y15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>18일</v>
       </c>
-      <c r="Z15" s="14" t="str">
+      <c r="Z15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>19일</v>
       </c>
-      <c r="AA15" s="14" t="str">
+      <c r="AA15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>20일</v>
       </c>
-      <c r="AB15" s="14" t="str">
+      <c r="AB15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>21일</v>
       </c>
-      <c r="AC15" s="14" t="str">
+      <c r="AC15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>22일</v>
       </c>
-      <c r="AD15" s="14" t="str">
+      <c r="AD15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>23일</v>
       </c>
     </row>
     <row r="16" spans="2:30" ht="30" customHeight="1">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
     </row>
     <row r="17" spans="2:30" ht="30" customHeight="1">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
     </row>
     <row r="18" spans="2:30" ht="30" customHeight="1">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="W18" s="12"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="W18" s="13"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
     </row>
     <row r="19" spans="2:30" ht="30" customHeight="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="8" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
     </row>
     <row r="20" spans="2:30" ht="30" customHeight="1">
-      <c r="B20" s="7"/>
-      <c r="C20" s="14" t="str">
+      <c r="B20" s="5"/>
+      <c r="C20" s="8" t="str">
         <f>COLUMN(X1) &amp; "일"</f>
         <v>24일</v>
       </c>
-      <c r="D20" s="14" t="str">
+      <c r="D20" s="8" t="str">
         <f t="shared" ref="D20:I20" si="4">COLUMN(Y1) &amp; "일"</f>
         <v>25일</v>
       </c>
-      <c r="E20" s="14" t="str">
+      <c r="E20" s="8" t="str">
         <f t="shared" si="4"/>
         <v>26일</v>
       </c>
-      <c r="F20" s="14" t="str">
+      <c r="F20" s="8" t="str">
         <f t="shared" si="4"/>
         <v>27일</v>
       </c>
-      <c r="G20" s="14" t="str">
+      <c r="G20" s="8" t="str">
         <f t="shared" si="4"/>
         <v>28일</v>
       </c>
-      <c r="H20" s="14" t="str">
+      <c r="H20" s="8" t="str">
         <f t="shared" si="4"/>
         <v>29일</v>
       </c>
-      <c r="I20" s="14" t="str">
+      <c r="I20" s="8" t="str">
         <f t="shared" si="4"/>
         <v>30일</v>
       </c>
-      <c r="J20" s="16" t="str">
+      <c r="J20" s="10" t="str">
         <f>COLUMN(A1) &amp; "일"</f>
         <v>1일</v>
       </c>
-      <c r="K20" s="16" t="str">
+      <c r="K20" s="10" t="str">
         <f t="shared" ref="K20:AD20" si="5">COLUMN(B1) &amp; "일"</f>
         <v>2일</v>
       </c>
-      <c r="L20" s="16" t="str">
+      <c r="L20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>3일</v>
       </c>
-      <c r="M20" s="16" t="str">
+      <c r="M20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>4일</v>
       </c>
-      <c r="N20" s="16" t="str">
+      <c r="N20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>5일</v>
       </c>
-      <c r="O20" s="16" t="str">
+      <c r="O20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>6일</v>
       </c>
-      <c r="P20" s="16" t="str">
+      <c r="P20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>7일</v>
       </c>
-      <c r="Q20" s="16" t="str">
+      <c r="Q20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>8일</v>
       </c>
-      <c r="R20" s="16" t="str">
+      <c r="R20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>9일</v>
       </c>
-      <c r="S20" s="16" t="str">
+      <c r="S20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>10일</v>
       </c>
-      <c r="T20" s="16" t="str">
+      <c r="T20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>11일</v>
       </c>
-      <c r="U20" s="16" t="str">
+      <c r="U20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>12일</v>
       </c>
-      <c r="V20" s="16" t="str">
+      <c r="V20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>13일</v>
       </c>
-      <c r="W20" s="16" t="str">
+      <c r="W20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>14일</v>
       </c>
-      <c r="X20" s="16" t="str">
+      <c r="X20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>15일</v>
       </c>
-      <c r="Y20" s="16" t="str">
+      <c r="Y20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>16일</v>
       </c>
-      <c r="Z20" s="16" t="str">
+      <c r="Z20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>17일</v>
       </c>
-      <c r="AA20" s="16" t="str">
+      <c r="AA20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>18일</v>
       </c>
-      <c r="AB20" s="16" t="str">
+      <c r="AB20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>19일</v>
       </c>
-      <c r="AC20" s="16" t="str">
+      <c r="AC20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>20일</v>
       </c>
-      <c r="AD20" s="16" t="str">
+      <c r="AD20" s="10" t="str">
         <f t="shared" si="5"/>
         <v>21일</v>
       </c>
     </row>
     <row r="21" spans="2:30" ht="30" customHeight="1">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
     </row>
     <row r="22" spans="2:30" ht="30" customHeight="1">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
     </row>
     <row r="23" spans="2:30" ht="30" customHeight="1">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
     </row>
     <row r="24" spans="2:30" ht="30" customHeight="1">
-      <c r="B24" s="7"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
     </row>
     <row r="25" spans="2:30" ht="30" customHeight="1">
-      <c r="B25" s="7"/>
-      <c r="C25" s="14" t="str">
+      <c r="B25" s="5"/>
+      <c r="C25" s="8" t="str">
         <f>COLUMN(V1) &amp; "일"</f>
         <v>22일</v>
       </c>
-      <c r="D25" s="14" t="str">
+      <c r="D25" s="8" t="str">
         <f t="shared" ref="D25:L25" si="6">COLUMN(W1) &amp; "일"</f>
         <v>23일</v>
       </c>
-      <c r="E25" s="14" t="str">
+      <c r="E25" s="8" t="str">
         <f t="shared" si="6"/>
         <v>24일</v>
       </c>
-      <c r="F25" s="14" t="str">
+      <c r="F25" s="8" t="str">
         <f t="shared" si="6"/>
         <v>25일</v>
       </c>
-      <c r="G25" s="14" t="str">
+      <c r="G25" s="8" t="str">
         <f t="shared" si="6"/>
         <v>26일</v>
       </c>
-      <c r="H25" s="14" t="str">
+      <c r="H25" s="8" t="str">
         <f t="shared" si="6"/>
         <v>27일</v>
       </c>
-      <c r="I25" s="14" t="str">
+      <c r="I25" s="8" t="str">
         <f t="shared" si="6"/>
         <v>28일</v>
       </c>
-      <c r="J25" s="14" t="str">
+      <c r="J25" s="8" t="str">
         <f t="shared" si="6"/>
         <v>29일</v>
       </c>
-      <c r="K25" s="14" t="str">
+      <c r="K25" s="8" t="str">
         <f t="shared" si="6"/>
         <v>30일</v>
       </c>
-      <c r="L25" s="14" t="str">
+      <c r="L25" s="8" t="str">
         <f t="shared" si="6"/>
         <v>31일</v>
       </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
     </row>
     <row r="26" spans="2:30" ht="30" customHeight="1">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
     </row>
     <row r="27" spans="2:30" ht="30" customHeight="1">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
     </row>
     <row r="28" spans="2:30" ht="30" customHeight="1">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C4:AD4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:AD9"/>
+    <mergeCell ref="B1:AD1"/>
+    <mergeCell ref="C2:E2"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="G13:M13"/>
@@ -2451,35 +2414,30 @@
     <mergeCell ref="H14:AD14"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="J19:AD19"/>
-    <mergeCell ref="C4:AD4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:AD9"/>
-    <mergeCell ref="B1:AD1"/>
-    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
+  <conditionalFormatting sqref="C25:L25">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>#REF!=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C5:AD5">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:AD10">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:AD15">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:AD20">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>#REF!=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:L25">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
